--- a/src/test/resources/Template_Import_Syllabus.xlsx
+++ b/src/test/resources/Template_Import_Syllabus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\Project\fms-backend-api\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\Project\fms-backend-api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930C084-D4AC-433E-9D72-2C4688B8005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E639E99-BAEB-409A-904F-0194CC6EFBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>TEEST</t>
+    <t>TEEST123</t>
   </si>
 </sst>
 </file>
@@ -1807,6 +1807,15 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,14 +1849,23 @@
     <xf numFmtId="165" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,24 +1874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2907,7 +2907,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2925,15 +2925,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="115" t="str">
+      <c r="A1" s="104" t="str">
         <f>C3&amp;" "&amp;"Syllabus"</f>
         <v>TEST Syllabus</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1">
       <c r="A2" s="75">
@@ -2942,12 +2942,12 @@
       <c r="B2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1">
       <c r="A3" s="77">
@@ -2956,12 +2956,12 @@
       <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1">
       <c r="A4" s="77">
@@ -2970,12 +2970,12 @@
       <c r="B4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -2984,18 +2984,18 @@
       <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="115">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" spans="1:6" ht="32.4" customHeight="1">
-      <c r="A6" s="116">
+      <c r="A6" s="105">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="79" t="s">
@@ -3012,8 +3012,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="79" t="s">
         <v>10</v>
       </c>
@@ -3028,8 +3028,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="79" t="s">
         <v>29</v>
       </c>
@@ -3044,8 +3044,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="79" t="s">
         <v>30</v>
       </c>
@@ -3060,18 +3060,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="46.2" customHeight="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="83" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="80">
         <v>6</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="108"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="29" t="s">
@@ -3377,23 +3377,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A1" s="118" t="str">
+      <c r="A1" s="124" t="str">
         <f>Syllabus!C3 &amp; " - Training Schedule"</f>
         <v>TEST - Training Schedule</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="31" t="s">
         <v>13</v>
       </c>
@@ -3414,10 +3414,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="121">
+      <c r="A3" s="118">
         <v>1</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="121" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3440,8 +3440,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="79.2">
-      <c r="A4" s="122"/>
-      <c r="B4" s="124"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="5" t="s">
         <v>84</v>
       </c>
@@ -3462,8 +3462,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="79.2">
-      <c r="A5" s="122"/>
-      <c r="B5" s="124"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="39" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3484,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.4">
-      <c r="A6" s="122"/>
-      <c r="B6" s="124"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="39" t="s">
         <v>86</v>
       </c>
@@ -3506,8 +3506,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="158.4">
-      <c r="A7" s="122"/>
-      <c r="B7" s="124"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="40" t="s">
         <v>87</v>
       </c>
@@ -3528,8 +3528,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="79.2">
-      <c r="A8" s="122"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="39" t="s">
         <v>88</v>
       </c>
@@ -3550,8 +3550,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.4">
-      <c r="A9" s="122"/>
-      <c r="B9" s="124"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="45" t="s">
         <v>86</v>
       </c>
@@ -3572,10 +3572,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="121">
+      <c r="A10" s="118">
         <v>2</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="121" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -3598,8 +3598,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="132">
-      <c r="A11" s="122"/>
-      <c r="B11" s="124"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
@@ -3620,8 +3620,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="79.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="39" t="s">
         <v>92</v>
       </c>
@@ -3642,8 +3642,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.4">
-      <c r="A13" s="122"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="39" t="s">
         <v>86</v>
       </c>
@@ -3664,10 +3664,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="121">
+      <c r="A14" s="118">
         <v>3</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="121" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -3690,8 +3690,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="122"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="47" t="s">
         <v>90</v>
       </c>
@@ -3710,8 +3710,8 @@
       <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="39.6">
-      <c r="A16" s="122"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="47" t="s">
         <v>95</v>
       </c>
@@ -3732,8 +3732,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="79.2">
-      <c r="A17" s="122"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="39" t="s">
         <v>96</v>
       </c>
@@ -3754,8 +3754,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="52.8">
-      <c r="A18" s="122"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="39" t="s">
         <v>97</v>
       </c>
@@ -3776,8 +3776,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="26.4">
-      <c r="A19" s="122"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="39" t="s">
         <v>86</v>
       </c>
@@ -3798,10 +3798,10 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="121">
+      <c r="A20" s="118">
         <v>4</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="121" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -3824,8 +3824,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="39.6">
-      <c r="A21" s="122"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="47" t="s">
         <v>99</v>
       </c>
@@ -3846,8 +3846,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="79.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="39" t="s">
         <v>100</v>
       </c>
@@ -3868,8 +3868,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="52.8">
-      <c r="A23" s="122"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
       </c>
@@ -3890,8 +3890,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="26.4">
-      <c r="A24" s="122"/>
-      <c r="B24" s="124"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="39" t="s">
         <v>86</v>
       </c>
@@ -3912,10 +3912,10 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="121">
+      <c r="A25" s="118">
         <v>5</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="121" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="47" t="s">
@@ -3938,8 +3938,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="79.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="124"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="49" t="s">
         <v>103</v>
       </c>
@@ -3960,8 +3960,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="26.4">
-      <c r="A27" s="122"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="3" t="s">
         <v>105</v>
       </c>
@@ -3982,8 +3982,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="79.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="39" t="s">
         <v>106</v>
       </c>
@@ -4004,8 +4004,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="26.4">
-      <c r="A29" s="122"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="39" t="s">
         <v>86</v>
       </c>
@@ -4026,10 +4026,10 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="121">
+      <c r="A30" s="118">
         <v>6</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="121" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="47" t="s">
@@ -4052,8 +4052,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="52.8">
-      <c r="A31" s="122"/>
-      <c r="B31" s="122"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="50" t="s">
         <v>155</v>
       </c>
@@ -4074,8 +4074,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="39.6">
-      <c r="A32" s="122"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="73" t="s">
         <v>156</v>
       </c>
@@ -4096,8 +4096,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="79.2">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="51" t="s">
         <v>108</v>
       </c>
@@ -4118,8 +4118,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="52.8">
-      <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="39" t="s">
         <v>109</v>
       </c>
@@ -4140,8 +4140,8 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="122"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="39" t="s">
         <v>86</v>
       </c>
@@ -4160,10 +4160,10 @@
       <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="121">
+      <c r="A36" s="118">
         <v>7</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="121" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -4186,8 +4186,8 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="122"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="48" t="s">
         <v>111</v>
       </c>
@@ -4208,8 +4208,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="39.6">
-      <c r="A38" s="122"/>
-      <c r="B38" s="124"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="50" t="s">
         <v>160</v>
       </c>
@@ -4230,8 +4230,8 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="122"/>
-      <c r="B39" s="124"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="50" t="s">
         <v>159</v>
       </c>
@@ -4252,8 +4252,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="52.8">
-      <c r="A40" s="122"/>
-      <c r="B40" s="124"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="39" t="s">
         <v>112</v>
       </c>
@@ -4274,8 +4274,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.4">
-      <c r="A41" s="122"/>
-      <c r="B41" s="124"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="39" t="s">
         <v>86</v>
       </c>
@@ -4296,10 +4296,10 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="121">
+      <c r="A42" s="118">
         <v>8</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="121" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -4322,8 +4322,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="52.8">
-      <c r="A43" s="122"/>
-      <c r="B43" s="124"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="50" t="s">
         <v>161</v>
       </c>
@@ -4344,8 +4344,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="39.6">
-      <c r="A44" s="122"/>
-      <c r="B44" s="124"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="50" t="s">
         <v>162</v>
       </c>
@@ -4366,8 +4366,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="52.8">
-      <c r="A45" s="122"/>
-      <c r="B45" s="124"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="39" t="s">
         <v>114</v>
       </c>
@@ -4388,8 +4388,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="26.4">
-      <c r="A46" s="122"/>
-      <c r="B46" s="124"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="39" t="s">
         <v>86</v>
       </c>
@@ -4410,10 +4410,10 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="121">
+      <c r="A47" s="118">
         <v>9</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="121" t="s">
         <v>115</v>
       </c>
       <c r="C47" s="34" t="s">
@@ -4436,8 +4436,8 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="122"/>
-      <c r="B48" s="124"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="48" t="s">
         <v>116</v>
       </c>
@@ -4458,8 +4458,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="57" customHeight="1">
-      <c r="A49" s="122"/>
-      <c r="B49" s="124"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="50" t="s">
         <v>163</v>
       </c>
@@ -4480,8 +4480,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="39.6">
-      <c r="A50" s="122"/>
-      <c r="B50" s="124"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="50" t="s">
         <v>164</v>
       </c>
@@ -4502,8 +4502,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="52.8">
-      <c r="A51" s="122"/>
-      <c r="B51" s="124"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="39" t="s">
         <v>117</v>
       </c>
@@ -4524,8 +4524,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="26.4">
-      <c r="A52" s="122"/>
-      <c r="B52" s="124"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="122"/>
       <c r="C52" s="39" t="s">
         <v>86</v>
       </c>
@@ -4546,10 +4546,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A53" s="121">
+      <c r="A53" s="118">
         <v>10</v>
       </c>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="121" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="34" t="s">
@@ -4572,8 +4572,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="122"/>
-      <c r="B54" s="124"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="49" t="s">
         <v>118</v>
       </c>
@@ -4594,8 +4594,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="79.2">
-      <c r="A55" s="122"/>
-      <c r="B55" s="124"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="122"/>
       <c r="C55" s="39" t="s">
         <v>119</v>
       </c>
@@ -4616,8 +4616,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="13.8">
-      <c r="A56" s="122"/>
-      <c r="B56" s="124"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="122"/>
       <c r="C56" s="39" t="s">
         <v>165</v>
       </c>
@@ -4638,8 +4638,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="52.8">
-      <c r="A57" s="122"/>
-      <c r="B57" s="124"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="39" t="s">
         <v>120</v>
       </c>
@@ -4660,8 +4660,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="26.4">
-      <c r="A58" s="122"/>
-      <c r="B58" s="124"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="39" t="s">
         <v>86</v>
       </c>
@@ -4682,10 +4682,10 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="121">
+      <c r="A59" s="118">
         <v>11</v>
       </c>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="121" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="54" t="s">
@@ -4708,8 +4708,8 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="122"/>
-      <c r="B60" s="124"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="48" t="s">
         <v>122</v>
       </c>
@@ -4731,8 +4731,8 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="122"/>
-      <c r="B61" s="124"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="122"/>
       <c r="C61" s="49" t="s">
         <v>121</v>
       </c>
@@ -4753,8 +4753,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="26.4">
-      <c r="A62" s="122"/>
-      <c r="B62" s="124"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="122"/>
       <c r="C62" s="39" t="s">
         <v>123</v>
       </c>
@@ -4775,8 +4775,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="26.4">
-      <c r="A63" s="122"/>
-      <c r="B63" s="124"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="39" t="s">
         <v>124</v>
       </c>
@@ -4797,8 +4797,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="122"/>
-      <c r="B64" s="124"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="122"/>
       <c r="C64" s="55" t="s">
         <v>125</v>
       </c>
@@ -4819,8 +4819,8 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="126"/>
-      <c r="B65" s="125"/>
+      <c r="A65" s="120"/>
+      <c r="B65" s="123"/>
       <c r="C65" s="55" t="s">
         <v>18</v>
       </c>
@@ -4841,7 +4841,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="121">
+      <c r="A66" s="118">
         <v>12</v>
       </c>
       <c r="B66" s="53" t="s">
@@ -4867,7 +4867,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1">
-      <c r="A67" s="122"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="52" t="s">
         <v>128</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="126"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="74"/>
       <c r="C68" s="49" t="s">
         <v>130</v>
@@ -4915,6 +4915,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="A59:A65"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A42:A46"/>
@@ -4924,22 +4940,6 @@
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
